--- a/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19C07-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01533623274419138</v>
+        <v>0.01570924868865585</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009259326760723162</v>
+        <v>0.009289247252676843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004429604411512005</v>
+        <v>0.006210564223888087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01251503167900401</v>
+        <v>0.01215266504726577</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02428488688127249</v>
+        <v>0.02406367972431605</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01169859402947709</v>
+        <v>0.01218146194453752</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01596088931619055</v>
+        <v>0.01648921421807727</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02107357515867797</v>
+        <v>0.02232110993531508</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02284981096249544</v>
+        <v>0.02300653917346368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01284723771793435</v>
+        <v>0.0123184681182502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01391392860799198</v>
+        <v>0.01328618412726342</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02047157644064306</v>
+        <v>0.0201409250996717</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03860453417535516</v>
+        <v>0.03823971239801029</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03083267357595477</v>
+        <v>0.03104409773939202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02613119362073933</v>
+        <v>0.02789223603978017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04171500828172323</v>
+        <v>0.03962859310758982</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04736215687095544</v>
+        <v>0.04731521758833891</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03010325045331748</v>
+        <v>0.02824493955198685</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04270090061578413</v>
+        <v>0.04454431575632219</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04105834042399157</v>
+        <v>0.04255768511197484</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03829265881232977</v>
+        <v>0.03856108616385175</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0255883611953164</v>
+        <v>0.02542109739218443</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03178088829912848</v>
+        <v>0.03254900898297818</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03610494535941265</v>
+        <v>0.03618101968125358</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03030544683580235</v>
+        <v>0.03105168747265295</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02925864956831347</v>
+        <v>0.02920602595037642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02762409088342213</v>
+        <v>0.02852291954472842</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02904257087615802</v>
+        <v>0.02907547907947872</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03081639805120848</v>
+        <v>0.030199782522567</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03572764888447234</v>
+        <v>0.03715622191507264</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03081815596148664</v>
+        <v>0.03194307002255056</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03539033542566182</v>
+        <v>0.03483847482876717</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03380776509992448</v>
+        <v>0.03324819201934784</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03506315407732373</v>
+        <v>0.03479314797189187</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03203019047125078</v>
+        <v>0.03202688112007114</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03512348614301762</v>
+        <v>0.03413516331854741</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05161446229941078</v>
+        <v>0.05316754963969121</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0493276605253561</v>
+        <v>0.04769687869208172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04664445195296795</v>
+        <v>0.04694706927308288</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05155951607111229</v>
+        <v>0.05081873890597784</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05206025130328217</v>
+        <v>0.0524486702040026</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05762826286789165</v>
+        <v>0.05880767802711129</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05013630700993479</v>
+        <v>0.04948340950913985</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05425664495799923</v>
+        <v>0.05445777320342511</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04885520999821783</v>
+        <v>0.04810808331202346</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05010744599679387</v>
+        <v>0.04967607157010936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04501031010544504</v>
+        <v>0.04546242814345953</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04925445693646743</v>
+        <v>0.04908128127532478</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.03076504254387189</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05021973168474506</v>
+        <v>0.05021973168474505</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02580539721533912</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01709659268892438</v>
+        <v>0.01818644127343953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02816556211735594</v>
+        <v>0.0279953193346116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00805533632962244</v>
+        <v>0.007954212708790188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01928565570788951</v>
+        <v>0.01910502238633465</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009379239919089</v>
+        <v>0.009559264486485038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02558923493947894</v>
+        <v>0.02652452786582041</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01671565980925802</v>
+        <v>0.01645297734762827</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03566525200306771</v>
+        <v>0.03671825731630475</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01623682746821122</v>
+        <v>0.01629174590314381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03160994155772413</v>
+        <v>0.03167581260803592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01586336176015471</v>
+        <v>0.01593433504366993</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03189759832996616</v>
+        <v>0.03065087083464895</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05029691950315181</v>
+        <v>0.05077432416479689</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07268451329052851</v>
+        <v>0.06927891919661625</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03292633269155636</v>
+        <v>0.03234609202160773</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04558869165968042</v>
+        <v>0.04659689177749259</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04035114956486534</v>
+        <v>0.03968216521246185</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07038647629423389</v>
+        <v>0.06868454660505102</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05059347305792852</v>
+        <v>0.04882735340623962</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06726151391421806</v>
+        <v>0.06804198552492358</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03830315648830889</v>
+        <v>0.03863654273407331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05971810602630605</v>
+        <v>0.06137960324903401</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03599486897415402</v>
+        <v>0.03594879997829674</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05182297398992464</v>
+        <v>0.05300631482766648</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.03541144898532846</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04202432785336963</v>
+        <v>0.04202432785336962</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03453106929566539</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02742923039110737</v>
+        <v>0.02794781488571579</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02709819280301146</v>
+        <v>0.02664266771741827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02248631792756342</v>
+        <v>0.02245536969105537</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02725002447116317</v>
+        <v>0.0272624858815982</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02756520095078297</v>
+        <v>0.02832608797436155</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02924355315052682</v>
+        <v>0.02950656960508927</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02911290707546047</v>
+        <v>0.02950128390343312</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03624635036098531</v>
+        <v>0.03581262645568085</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02973329122487542</v>
+        <v>0.02964120030179159</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03041415712197801</v>
+        <v>0.03011552136133221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02758365287554539</v>
+        <v>0.02760808739940067</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03364899507961845</v>
+        <v>0.0336115297754663</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04232869421713061</v>
+        <v>0.04346974825348331</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04142402509625503</v>
+        <v>0.04101811625950473</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03514327420486978</v>
+        <v>0.03667575679378747</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0424971292263809</v>
+        <v>0.04179081957515512</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04162041053303379</v>
+        <v>0.04249731685918948</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04296836253420325</v>
+        <v>0.04366596078450518</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04328966479127545</v>
+        <v>0.04313318317957628</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0492657260868366</v>
+        <v>0.04972716260774483</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03967023052524257</v>
+        <v>0.03932184875387561</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04028751609433771</v>
+        <v>0.0398469765012989</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03715461205412342</v>
+        <v>0.03740354167639633</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04374882400935736</v>
+        <v>0.04402285159332203</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10572</v>
+        <v>10829</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7215</v>
+        <v>7238</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2026</v>
+        <v>2841</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6724</v>
+        <v>6529</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23288</v>
+        <v>23076</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13199</v>
+        <v>13744</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10197</v>
+        <v>10535</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16534</v>
+        <v>17513</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>37664</v>
+        <v>37922</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>24505</v>
+        <v>23496</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>15254</v>
+        <v>14566</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>27061</v>
+        <v>26624</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26613</v>
+        <v>26361</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24024</v>
+        <v>24189</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11953</v>
+        <v>12758</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22413</v>
+        <v>21292</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45418</v>
+        <v>45373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>33964</v>
+        <v>31867</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27280</v>
+        <v>28458</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>32214</v>
+        <v>33390</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63119</v>
+        <v>63561</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48808</v>
+        <v>48489</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>34841</v>
+        <v>35683</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>47726</v>
+        <v>47827</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39835</v>
+        <v>40816</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49397</v>
+        <v>49308</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46867</v>
+        <v>48392</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>62339</v>
+        <v>62410</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>42317</v>
+        <v>41470</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>56817</v>
+        <v>59089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>52660</v>
+        <v>54582</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>74695</v>
+        <v>73530</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>90863</v>
+        <v>89359</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>114956</v>
+        <v>114071</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>109073</v>
+        <v>109062</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>149523</v>
+        <v>145316</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>67845</v>
+        <v>69886</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>83279</v>
+        <v>80526</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79137</v>
+        <v>79651</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>110671</v>
+        <v>109081</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>71489</v>
+        <v>72022</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>91645</v>
+        <v>93521</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>85669</v>
+        <v>84553</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>114514</v>
+        <v>114938</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>131305</v>
+        <v>129297</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>164280</v>
+        <v>162866</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>153275</v>
+        <v>154814</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>209680</v>
+        <v>208942</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7709</v>
+        <v>8201</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12453</v>
+        <v>12378</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4022</v>
+        <v>3971</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13535</v>
+        <v>13409</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3834</v>
+        <v>3908</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>10843</v>
+        <v>11239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8497</v>
+        <v>8363</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25836</v>
+        <v>26599</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13959</v>
+        <v>14006</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>27370</v>
+        <v>27427</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15983</v>
+        <v>16055</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>45494</v>
+        <v>43716</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22680</v>
+        <v>22896</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32136</v>
+        <v>30631</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16438</v>
+        <v>16149</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31996</v>
+        <v>32704</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16495</v>
+        <v>16221</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29824</v>
+        <v>29103</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25718</v>
+        <v>24820</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48725</v>
+        <v>49290</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>32930</v>
+        <v>33216</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>51707</v>
+        <v>53146</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36267</v>
+        <v>36221</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>73913</v>
+        <v>75600</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67332</v>
+        <v>68605</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>78845</v>
+        <v>77519</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>59662</v>
+        <v>59580</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>92258</v>
+        <v>92300</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>75554</v>
+        <v>77640</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>91890</v>
+        <v>92717</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>83144</v>
+        <v>84253</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>131197</v>
+        <v>129627</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>154485</v>
+        <v>154006</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>184061</v>
+        <v>182254</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>151963</v>
+        <v>152098</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>235718</v>
+        <v>235455</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103906</v>
+        <v>106707</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>120527</v>
+        <v>119346</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>93245</v>
+        <v>97311</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>143878</v>
+        <v>141487</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>114079</v>
+        <v>116482</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>135017</v>
+        <v>137209</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>123632</v>
+        <v>123185</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>178322</v>
+        <v>179992</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>206114</v>
+        <v>204304</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>243813</v>
+        <v>241147</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>204692</v>
+        <v>206063</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>306469</v>
+        <v>308389</v>
       </c>
     </row>
     <row r="20">
